--- a/ExampleCrosstab.xlsx
+++ b/ExampleCrosstab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russell\Documents\pyDMNrules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russe\Documents\PyPI\github\pyDMNrules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B011FF-3BD4-4B3F-AEF4-AF7364F45882}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D2ED92-BC72-4DC6-A9C2-8A52540DC837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12450" yWindow="-14475" windowWidth="18900" windowHeight="10980" activeTab="2" xr2:uid="{927A3934-8AED-48D8-8E86-6C6B2C78244E}"/>
+    <workbookView xWindow="-15450" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{927A3934-8AED-48D8-8E86-6C6B2C78244E}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -435,6 +435,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -447,37 +450,34 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,21 +803,21 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -839,27 +839,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
@@ -887,19 +887,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="2:3" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="2:3" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
@@ -907,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -928,54 +928,54 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="31"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="31"/>
       <c r="C5" s="32"/>
       <c r="D5" s="14" t="s">
         <v>21</v>
@@ -990,11 +990,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="15">
@@ -1010,13 +1010,13 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="27"/>
       <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="15">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
